--- a/data/trans_dic/P15D$ingresado-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,57 +730,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 22,54</t>
+          <t>5,38; 21,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 21,79</t>
+          <t>2,49; 22,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 30,34</t>
+          <t>8,63; 30,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,26</t>
+          <t>0,0; 32,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 18,79</t>
+          <t>2,2; 19,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 26,9</t>
+          <t>6,21; 27,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 21,19</t>
+          <t>7,78; 21,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,83</t>
+          <t>0,0; 13,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 16,75</t>
+          <t>5,6; 17,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 20,73</t>
+          <t>6,16; 20,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 22,73</t>
+          <t>10,32; 23,56</t>
         </is>
       </c>
     </row>
@@ -864,22 +865,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,38; 35,54</t>
+          <t>9,55; 35,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 11,98</t>
+          <t>1,27; 12,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 26,29</t>
+          <t>7,1; 27,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 34,7</t>
+          <t>10,64; 35,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +890,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 21,58</t>
+          <t>5,63; 22,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 30,32</t>
+          <t>5,88; 30,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,11; 31,32</t>
+          <t>5,83; 30,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,48; 21,8</t>
+          <t>5,6; 23,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 13,71</t>
+          <t>4,49; 13,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 24,73</t>
+          <t>8,73; 23,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,84; 26,36</t>
+          <t>9,98; 26,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 45,82</t>
+          <t>8,63; 48,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 25,06</t>
+          <t>6,31; 24,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 25,21</t>
+          <t>2,84; 25,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 34,13</t>
+          <t>6,7; 33,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,35</t>
+          <t>0,0; 20,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 20,28</t>
+          <t>3,6; 20,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,28</t>
+          <t>0,0; 20,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 20,08</t>
+          <t>3,29; 17,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 27,81</t>
+          <t>6,21; 29,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 18,04</t>
+          <t>6,81; 18,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 17,34</t>
+          <t>3,03; 18,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,05; 20,11</t>
+          <t>6,33; 20,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 24,49</t>
+          <t>2,43; 25,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 13,97</t>
+          <t>1,18; 13,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 19,86</t>
+          <t>2,91; 19,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 21,3</t>
+          <t>5,23; 22,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,15</t>
+          <t>0,0; 30,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,65</t>
+          <t>0,0; 9,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 18,27</t>
+          <t>1,76; 18,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,29</t>
+          <t>5,31; 17,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 20,79</t>
+          <t>3,98; 21,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 9,72</t>
+          <t>1,86; 9,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,03; 14,43</t>
+          <t>3,94; 14,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 16,34</t>
+          <t>6,27; 15,86</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 22,21</t>
+          <t>8,29; 21,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 12,41</t>
+          <t>5,39; 12,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 16,25</t>
+          <t>7,22; 16,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 22,06</t>
+          <t>11,21; 22,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,32</t>
+          <t>1,26; 10,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,03</t>
+          <t>4,93; 11,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,91</t>
+          <t>6,6; 16,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,13</t>
+          <t>7,93; 16,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,27</t>
+          <t>6,36; 15,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,77</t>
+          <t>5,87; 10,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,55</t>
+          <t>7,95; 14,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 17,25</t>
+          <t>10,86; 17,97</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, el ingreso en hospital o clínica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6742</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4054</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7565</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6808</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5840</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11162</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10863</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13406</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1806</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3177; 12902</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1036; 9173</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3872; 13792</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5108</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1153; 10056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3022; 13415</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3365; 9264</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5078</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6244; 19572</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5559; 18790</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9098; 20759</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8194</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9073</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12834</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8565</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7376</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7399</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8194</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12573</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16449</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20233</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4085; 15114</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1004; 10104</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4292; 16480</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7136; 23912</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1981</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4082; 16211</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2787; 14256</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3337; 17398</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4087; 17131</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6812; 20845</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9417; 25488</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12404; 32948</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5687</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7560</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4044</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5213</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1711</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>7398</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12825</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9057</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2054; 11577</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3624; 13980</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1040; 9203</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1959; 9871</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4939</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2054; 11654</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6480</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1450; 7685</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2975; 14147</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7801; 21599</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2070; 12446</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4644; 14960</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3234</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6461</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2328</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2060</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6919</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5562</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6996</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9917</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13380</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>818; 8648</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1038; 11579</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1774; 11594</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3078; 13142</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7117</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6836</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1101; 11810</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3662; 11743</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2285; 12580</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2980; 14970</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>4869; 18190</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>8017; 20290</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17115</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23248</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22365</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32074</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20308</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21020</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>24002</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22175</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>43556</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>43385</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>56076</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10199; 26830</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15289; 34716</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14421; 32040</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22434; 44043</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1180; 10186</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12527; 30078</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12554; 31425</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16941; 36007</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>13786; 33224</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31596; 57467</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>30994; 57455</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>44915; 74353</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>